--- a/ITLA_PE_PORTALADMIN/ArchivosMeet/meet_logs_1603411965923.xlsx
+++ b/ITLA_PE_PORTALADMIN/ArchivosMeet/meet_logs_1603411965923.xlsx
@@ -126,16 +126,16 @@
     <t>BfNW4sPPEBIi9I-RytIeAKIQ</t>
   </si>
   <si>
-    <t>esteban</t>
-  </si>
-  <si>
-    <t>maria</t>
-  </si>
-  <si>
-    <t>lucas</t>
-  </si>
-  <si>
-    <t>mateo</t>
+    <t>ISAIAS</t>
+  </si>
+  <si>
+    <t>JEREMIAS</t>
+  </si>
+  <si>
+    <t>OSEAS</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
   <dimension ref="A1:BF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
